--- a/artfynd/A 29332-2023.xlsx
+++ b/artfynd/A 29332-2023.xlsx
@@ -1068,7 +1068,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108106702</v>
+        <v>108106695</v>
       </c>
       <c r="B5" t="n">
         <v>78569</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510218.5630628319</v>
+        <v>510220.5186747735</v>
       </c>
       <c r="R5" t="n">
-        <v>6952924.053632278</v>
+        <v>6953331.106935458</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108106695</v>
+        <v>108106702</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>510220.5186747735</v>
+        <v>510218.5630628319</v>
       </c>
       <c r="R6" t="n">
-        <v>6953331.106935458</v>
+        <v>6952924.053632278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29332-2023.xlsx
+++ b/artfynd/A 29332-2023.xlsx
@@ -1068,7 +1068,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108106695</v>
+        <v>108106702</v>
       </c>
       <c r="B5" t="n">
         <v>78569</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510220.5186747735</v>
+        <v>510218.5630628319</v>
       </c>
       <c r="R5" t="n">
-        <v>6953331.106935458</v>
+        <v>6952924.053632278</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108106702</v>
+        <v>108106695</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>510218.5630628319</v>
+        <v>510220.5186747735</v>
       </c>
       <c r="R6" t="n">
-        <v>6952924.053632278</v>
+        <v>6953331.106935458</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
